--- a/Sales-Dashboard-3_0.xlsx
+++ b/Sales-Dashboard-3_0.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Youtube/03. DashVendas 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="468" documentId="13_ncr:1_{BFF51C44-DCD2-4F0A-BAAC-D0ADC01F5A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB22228E-4EEB-4CAC-A3E5-CA6DFF5761F7}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="13_ncr:1_{BFF51C44-DCD2-4F0A-BAAC-D0ADC01F5A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC510DAB-685D-4D64-8FCE-30EF3AF606FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0A0D8D68-EFC2-4074-BDCA-85DAF874A3F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0A0D8D68-EFC2-4074-BDCA-85DAF874A3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="3" r:id="rId1"/>
-    <sheet name="Input Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Master Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
+    <sheet name="Input Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Master Data" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Analysis!$AF$3:$AF$7</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Analysis!$AG$3:$AG$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Analysis!$AF$3:$AF$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Analysis!$AG$3:$AG$7</definedName>
     <definedName name="Category">OFFSET(Analysis!$AC$2,1,0,COUNT(Analysis!$AD:$AD))</definedName>
     <definedName name="CategoryRange">OFFSET(Analysis!$AC$2,1,1,COUNT(Analysis!$AD:$AD))</definedName>
     <definedName name="SegmentaçãodeDados_Month">#N/A</definedName>
@@ -31,15 +30,15 @@
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -496,9 +495,9 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,11 +519,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -594,7 +588,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,8 +612,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -629,9 +622,6 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -837,6 +827,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1703,7 +1696,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1737,7 +1729,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1771,7 +1762,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1805,7 +1795,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1839,7 +1828,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1873,7 +1861,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1907,7 +1894,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1941,7 +1927,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1975,7 +1960,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2009,7 +1993,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2043,7 +2026,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2077,7 +2059,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3038,6 +3019,48 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3071,6 +3094,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9824-48E2-B6D6-4EF765EB7C58}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3086,6 +3114,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9824-48E2-B6D6-4EF765EB7C58}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3386,6 +3419,34 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3419,6 +3480,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5D90-41B6-A557-65439EEC999B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3434,6 +3500,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5D90-41B6-A557-65439EEC999B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -7032,7 +7103,7 @@
             <xdr:cNvPr id="11" name="SALE TYPE">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA923E7-5A58-8E5A-2425-3F07F67FC2EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7110,7 +7181,7 @@
             <xdr:cNvPr id="12" name="PAYMENT MODE">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7125C087-C9B3-30C1-08B9-08253D7D90CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7188,7 +7259,7 @@
             <xdr:cNvPr id="14" name="Month">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2462C4A-755D-A26D-646B-ADAC37F54D1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7266,7 +7337,7 @@
             <xdr:cNvPr id="13" name="Year">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A864B697-2C8D-2192-9098-89FB887BB154}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7342,7 +7413,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F31485-CABF-E5DC-3285-A8324B25EF0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7378,7 +7449,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF461BB-6196-FC1A-D0CF-E79264968990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7401,13 +7472,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>786092</xdr:colOff>
+          <xdr:colOff>790575</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>224119</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7468,15 +7539,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>578223</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>176493</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>11205</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>186018</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7486,7 +7557,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF84F5C3-644D-D0F4-47E4-1E34197F8CF3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7537,13 +7608,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>183216</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>2241</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7553,7 +7624,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17205045-7779-D049-86F3-185A756A6E70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7615,7 +7686,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7154606A-C59D-E44B-86D2-4C8F00C309F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7703,7 +7774,7 @@
             <xdr:cNvPr id="5" name="Gráfico 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E146C2-436E-C12A-F30B-790BBEF1EB60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7730,8 +7801,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="31623000" y="1592354"/>
-              <a:ext cx="3137647" cy="3562351"/>
+              <a:off x="31582099" y="1592354"/>
+              <a:ext cx="3134285" cy="3562351"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7779,7 +7850,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40713AB6-5967-B5B1-1DC7-9EE3D6FCB79F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7815,7 +7886,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E263EBF5-3522-0E4A-E16B-125D347AA600}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7831,6 +7902,61 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95927774-837C-53F5-2388-E2F5CD150525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9670676" cy="5439754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17502,488 +17628,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDA3A2DE-A427-4D58-A9A7-F47181185571}" name="TotalSales" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D2:E3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="16">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Total Buying Value" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66E3FC50-82A3-42A4-BCDC-7AE80126ED5D}" name="Categorywise" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Category">
-  <location ref="AC2:AD7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2662366F-2D74-4B73-8EED-17F9E7AF4544}" name="Daily" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A2:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="13"/>
-  </rowFields>
-  <rowItems count="31">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11995CE8-2F23-4F9D-944D-5BD3B9118A70}" name="Monthly" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G2:I14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -18142,7 +17786,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CBECD968-6E96-4C08-9A79-2985EB377832}" name="Productwise" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Products">
   <location ref="P2:R46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -18452,7 +18096,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{519FFAEF-4180-44DD-A6C6-E34FB3FED936}" name="PaymentMode" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Payment Mode">
   <location ref="AM2:AN4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -18560,12 +18204,36 @@
   <dataFields count="1">
     <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -18583,7 +18251,266 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDA3A2DE-A427-4D58-A9A7-F47181185571}" name="TotalSales" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D2:E3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total Buying Value" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66E3FC50-82A3-42A4-BCDC-7AE80126ED5D}" name="Categorywise" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Category">
+  <location ref="AC2:AD7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37209809-68D4-4FE2-96E2-958E723714A6}" name="SalesType" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Sale Type">
   <location ref="AJ2:AK5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -18694,8 +18621,267 @@
   <dataFields count="1">
     <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2662366F-2D74-4B73-8EED-17F9E7AF4544}" name="Daily" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A2:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18823,46 +19009,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60351B27-4213-4B50-AF1E-6DD234ED1CD8}" name="InputData" displayName="InputData" ref="A1:P528" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60351B27-4213-4B50-AF1E-6DD234ED1CD8}" name="InputData" displayName="InputData" ref="A1:P528" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25">
   <autoFilter ref="A1:P528" xr:uid="{60351B27-4213-4B50-AF1E-6DD234ED1CD8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E527">
     <sortCondition ref="A1:A527"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{7E2D9722-C99A-4D79-AD8A-A4AF24D31B15}" name="DATE" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{1B687DA1-746A-409E-8132-464ADA2D65F7}" name="PRODUCT ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3D21C161-3520-4EEB-95C2-BC89A67F811B}" name="QUANTITY" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{51AFA112-3989-4C7A-B537-003512753602}" name="SALE TYPE" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{057B8FDA-60FB-4816-999C-2030B688B9CF}" name="PAYMENT MODE" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{A77A9445-20AF-4122-92EB-C3706E536AB4}" name="DISCOUNT %" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{EF36F582-8243-4D11-B1F9-3365747E3A15}" name="PRODUCT" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{7E2D9722-C99A-4D79-AD8A-A4AF24D31B15}" name="DATE" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1B687DA1-746A-409E-8132-464ADA2D65F7}" name="PRODUCT ID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{3D21C161-3520-4EEB-95C2-BC89A67F811B}" name="QUANTITY" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{51AFA112-3989-4C7A-B537-003512753602}" name="SALE TYPE" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{057B8FDA-60FB-4816-999C-2030B688B9CF}" name="PAYMENT MODE" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{A77A9445-20AF-4122-92EB-C3706E536AB4}" name="DISCOUNT %" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{EF36F582-8243-4D11-B1F9-3365747E3A15}" name="PRODUCT" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:B,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6C40EFE4-B06B-4022-A9DE-1DF212ACE9CD}" name="CATEGORY" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{6C40EFE4-B06B-4022-A9DE-1DF212ACE9CD}" name="CATEGORY" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:C,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C0221F36-9183-46D8-9832-D4F491DFDBDF}" name="UOM" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{C0221F36-9183-46D8-9832-D4F491DFDBDF}" name="UOM" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:D,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E273685E-A284-42EC-AECF-34BEF471CB6C}" name="BUYING PRIZE" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{E273685E-A284-42EC-AECF-34BEF471CB6C}" name="BUYING PRIZE" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:E,5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{68C3D957-3ED6-47AF-B6A5-93285DAE1B74}" name="SELLING PRICE" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{68C3D957-3ED6-47AF-B6A5-93285DAE1B74}" name="SELLING PRICE" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:F,6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B924AB12-DCC9-42A1-8327-F9F17EBBACD1}" name="Total Buying Value" dataDxfId="14">
+    <tableColumn id="12" xr3:uid="{B924AB12-DCC9-42A1-8327-F9F17EBBACD1}" name="Total Buying Value" dataDxfId="13">
       <calculatedColumnFormula>InputData[[#This Row],[BUYING PRIZE]]*InputData[[#This Row],[QUANTITY]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F93AF158-233E-4DFA-A672-B002567615A3}" name="Total Selling Value" dataDxfId="13">
+    <tableColumn id="13" xr3:uid="{F93AF158-233E-4DFA-A672-B002567615A3}" name="Total Selling Value" dataDxfId="12">
       <calculatedColumnFormula>InputData[[#This Row],[SELLING PRICE]]*InputData[[#This Row],[QUANTITY]]*(1-InputData[[#This Row],[DISCOUNT %]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{50889A8C-3CB3-4832-B011-4EDEFF510D7D}" name="Day" dataDxfId="12">
+    <tableColumn id="14" xr3:uid="{50889A8C-3CB3-4832-B011-4EDEFF510D7D}" name="Day" dataDxfId="11">
       <calculatedColumnFormula>DAY(InputData[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DF37A157-BAFE-4A6F-8357-3A2FFB713586}" name="Month" dataDxfId="11">
+    <tableColumn id="15" xr3:uid="{DF37A157-BAFE-4A6F-8357-3A2FFB713586}" name="Month" dataDxfId="10">
       <calculatedColumnFormula>MONTH(InputData[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7A3DA93E-A613-45D1-A85F-A17814534C29}" name="Year" dataDxfId="10">
+    <tableColumn id="16" xr3:uid="{7A3DA93E-A613-45D1-A85F-A17814534C29}" name="Year" dataDxfId="9">
       <calculatedColumnFormula>YEAR(InputData[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18871,15 +19057,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE6FA1E2-6EE8-430A-AF62-020400F3E926}" name="MasterData" displayName="MasterData" ref="A1:F46" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE6FA1E2-6EE8-430A-AF62-020400F3E926}" name="MasterData" displayName="MasterData" ref="A1:F46" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="A1:F46" xr:uid="{DE6FA1E2-6EE8-430A-AF62-020400F3E926}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{106E50BA-9FFB-484D-AC75-176578AFED44}" name="PRODUCT ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C6063C4C-22AC-43C3-B630-5C0916CFA263}" name="PRODUCT" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FEA9A0A4-A0D7-45FA-BD75-4D9EBBD09441}" name="CATEGORY" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3BDFD3DA-79CD-4B0E-9F98-1F406523093B}" name="UOM" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C286276F-25D5-4D9D-9759-32EF67A133BE}" name="BUYING PRIZE" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{BFC92544-6510-4B40-ABEE-FD6A4B0302D7}" name="SELLING PRICE" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{106E50BA-9FFB-484D-AC75-176578AFED44}" name="PRODUCT ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C6063C4C-22AC-43C3-B630-5C0916CFA263}" name="PRODUCT" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{FEA9A0A4-A0D7-45FA-BD75-4D9EBBD09441}" name="CATEGORY" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3BDFD3DA-79CD-4B0E-9F98-1F406523093B}" name="UOM" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C286276F-25D5-4D9D-9759-32EF67A133BE}" name="BUYING PRIZE" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{BFC92544-6510-4B40-ABEE-FD6A4B0302D7}" name="SELLING PRICE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19187,7 +19373,7 @@
   </sheetPr>
   <dimension ref="A1:AN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -19206,8 +19392,8 @@
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -19310,10 +19496,10 @@
       <c r="R2" t="s">
         <v>122</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AC2" s="9" t="s">
@@ -19342,19 +19528,19 @@
       <c r="B3" s="8">
         <v>13167.810000000001</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3">
         <v>401411.91999999969</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3">
         <v>332504</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3">
         <v>34290</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3">
         <v>41346.959999999992</v>
       </c>
       <c r="K3" s="10">
@@ -19375,17 +19561,17 @@
       <c r="P3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3">
         <v>9764.7199999999993</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3">
         <v>94</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="14">
         <f ca="1">RANK(V3,_xlfn.ANCHORARRAY($V$3))</f>
         <v>19</v>
       </c>
-      <c r="T3" s="16" cm="1">
+      <c r="T3" s="15" cm="1">
         <f t="array" aca="1" ref="T3:T46" ca="1">RANK(_xlfn.ANCHORARRAY(V3),_xlfn.ANCHORARRAY(V3))</f>
         <v>19</v>
       </c>
@@ -19416,10 +19602,10 @@
       <c r="AC3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3">
         <v>69261.950000000012</v>
       </c>
-      <c r="AE3" s="14" cm="1">
+      <c r="AE3" cm="1">
         <f t="array" aca="1" ref="AE3:AE7" ca="1">RANK(_xlfn.ANCHORARRAY(AG3),_xlfn.ANCHORARRAY(AG3))</f>
         <v>4</v>
       </c>
@@ -19431,17 +19617,16 @@
         <f t="array" aca="1" ref="AG3:AG7" ca="1">OFFSET($AC$2,1,1,COUNT($AD:$AD))</f>
         <v>69261.950000000012</v>
       </c>
-      <c r="AH3" s="14"/>
       <c r="AJ3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AK3" s="14">
+      <c r="AK3">
         <v>208140.15000000005</v>
       </c>
       <c r="AM3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AN3" s="14">
+      <c r="AN3">
         <v>199516.90000000008</v>
       </c>
     </row>
@@ -19455,10 +19640,10 @@
       <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4">
         <v>25341</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4">
         <v>30857.300000000003</v>
       </c>
       <c r="K4" s="10">
@@ -19479,17 +19664,17 @@
       <c r="P4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4">
         <v>13423.199999999999</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4">
         <v>94</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="14">
         <f t="shared" ref="S4:S46" ca="1" si="3">RANK(V4,_xlfn.ANCHORARRAY($V$3))</f>
         <v>10</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <f ca="1"/>
         <v>10</v>
       </c>
@@ -19520,14 +19705,14 @@
       <c r="AC4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4">
         <v>92963.87</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="AF4" s="14" t="str">
+      <c r="AF4" t="str">
         <f ca="1"/>
         <v>Category02</v>
       </c>
@@ -19535,17 +19720,16 @@
         <f ca="1"/>
         <v>92963.87</v>
       </c>
-      <c r="AH4" s="14"/>
       <c r="AJ4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AK4" s="14">
+      <c r="AK4">
         <v>133923.87000000002</v>
       </c>
       <c r="AM4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AN4" s="14">
+      <c r="AN4">
         <v>201895.01999999993</v>
       </c>
     </row>
@@ -19559,10 +19743,10 @@
       <c r="G5" s="10">
         <v>3</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5">
         <v>23437</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5">
         <v>28616.65</v>
       </c>
       <c r="K5" s="10">
@@ -19583,17 +19767,17 @@
       <c r="P5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5">
         <v>6394.2599999999993</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5">
         <v>79</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="15">
         <f ca="1"/>
         <v>26</v>
       </c>
@@ -19624,14 +19808,14 @@
       <c r="AC5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5">
         <v>52299.509999999995</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="AF5" s="14" t="str">
+      <c r="AF5" t="str">
         <f ca="1"/>
         <v>Category03</v>
       </c>
@@ -19639,11 +19823,10 @@
         <f ca="1"/>
         <v>52299.509999999995</v>
       </c>
-      <c r="AH5" s="14"/>
       <c r="AJ5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AK5" s="14">
+      <c r="AK5">
         <v>59347.900000000009</v>
       </c>
     </row>
@@ -19657,10 +19840,10 @@
       <c r="G6" s="10">
         <v>4</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6">
         <v>21282</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6">
         <v>26579.11</v>
       </c>
       <c r="K6" s="10">
@@ -19681,17 +19864,17 @@
       <c r="P6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6">
         <v>6056.1600000000008</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6">
         <v>124</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <f ca="1"/>
         <v>30</v>
       </c>
@@ -19722,14 +19905,14 @@
       <c r="AC6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6">
         <v>95269.4</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="AF6" s="14" t="str">
+      <c r="AF6" t="str">
         <f ca="1"/>
         <v>Category04</v>
       </c>
@@ -19737,7 +19920,6 @@
         <f ca="1"/>
         <v>95269.4</v>
       </c>
-      <c r="AH6" s="14"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -19749,10 +19931,10 @@
       <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7">
         <v>26526</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7">
         <v>30910.45</v>
       </c>
       <c r="K7" s="10">
@@ -19773,17 +19955,17 @@
       <c r="P7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7">
         <v>15716.61</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7">
         <v>101</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="15">
         <f ca="1"/>
         <v>8</v>
       </c>
@@ -19814,14 +19996,14 @@
       <c r="AC7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7">
         <v>91617.19</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="AF7" s="14" t="str">
+      <c r="AF7" t="str">
         <f ca="1"/>
         <v>Category05</v>
       </c>
@@ -19829,7 +20011,6 @@
         <f ca="1"/>
         <v>91617.19</v>
       </c>
-      <c r="AH7" s="14"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -19841,10 +20022,10 @@
       <c r="G8" s="10">
         <v>6</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8">
         <v>24879</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8">
         <v>30533.710000000003</v>
       </c>
       <c r="K8" s="10">
@@ -19865,17 +20046,17 @@
       <c r="P8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8">
         <v>4531.5</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8">
         <v>53</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="15">
         <f ca="1"/>
         <v>35</v>
       </c>
@@ -19914,10 +20095,10 @@
       <c r="G9" s="10">
         <v>7</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9">
         <v>29878</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9">
         <v>35251.79</v>
       </c>
       <c r="K9" s="10">
@@ -19938,17 +20119,17 @@
       <c r="P9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9">
         <v>2291.04</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9">
         <v>48</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>39</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="15">
         <f ca="1"/>
         <v>39</v>
       </c>
@@ -19987,10 +20168,10 @@
       <c r="G10" s="10">
         <v>8</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>29831</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10">
         <v>35350.400000000016</v>
       </c>
       <c r="K10" s="10">
@@ -20011,17 +20192,17 @@
       <c r="P10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10">
         <v>10502.82</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10">
         <v>111</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>15</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <f ca="1"/>
         <v>15</v>
       </c>
@@ -20060,10 +20241,10 @@
       <c r="G11" s="10">
         <v>9</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11">
         <v>28758</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11">
         <v>35242.810000000005</v>
       </c>
       <c r="K11" s="10">
@@ -20084,17 +20265,17 @@
       <c r="P11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11">
         <v>581.64</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11">
         <v>74</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="15">
         <f ca="1"/>
         <v>44</v>
       </c>
@@ -20133,10 +20314,10 @@
       <c r="G12" s="10">
         <v>10</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12">
         <v>27842</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12">
         <v>33500.69000000001</v>
       </c>
       <c r="K12" s="10">
@@ -20157,17 +20338,17 @@
       <c r="P12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12">
         <v>16428</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12">
         <v>100</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="15">
         <f ca="1"/>
         <v>5</v>
       </c>
@@ -20206,10 +20387,10 @@
       <c r="G13" s="10">
         <v>11</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13">
         <v>29306</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13">
         <v>36124.07</v>
       </c>
       <c r="K13" s="10">
@@ -20230,17 +20411,17 @@
       <c r="P13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13">
         <v>5856.4</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13">
         <v>121</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="15">
         <f ca="1"/>
         <v>31</v>
       </c>
@@ -20267,10 +20448,10 @@
       <c r="G14" s="10">
         <v>12</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14">
         <v>31134</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14">
         <v>37097.979999999996</v>
       </c>
       <c r="K14" s="10">
@@ -20291,17 +20472,17 @@
       <c r="P14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14">
         <v>11582.910000000003</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14">
         <v>123</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="15">
         <f ca="1"/>
         <v>13</v>
       </c>
@@ -20328,17 +20509,17 @@
       <c r="P15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15">
         <v>8423.52</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15">
         <v>69</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="15">
         <f ca="1"/>
         <v>22</v>
       </c>
@@ -20372,17 +20553,17 @@
       <c r="P16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16">
         <v>12764.640000000001</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16">
         <v>87</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="15">
         <f ca="1"/>
         <v>12</v>
       </c>
@@ -20416,17 +20597,17 @@
       <c r="P17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17">
         <v>1839.2399999999998</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17">
         <v>117</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="15">
         <f ca="1"/>
         <v>41</v>
       </c>
@@ -20460,17 +20641,17 @@
       <c r="P18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18">
         <v>1996.8</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18">
         <v>120</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S18" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>40</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="15">
         <f ca="1"/>
         <v>40</v>
       </c>
@@ -20497,17 +20678,17 @@
       <c r="P19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19">
         <v>9877.1400000000012</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19">
         <v>63</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="15">
         <f ca="1"/>
         <v>18</v>
       </c>
@@ -20534,17 +20715,17 @@
       <c r="P20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20">
         <v>4035.2200000000003</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20">
         <v>82</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>36</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="15">
         <f ca="1"/>
         <v>36</v>
       </c>
@@ -20571,17 +20752,17 @@
       <c r="P21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21">
         <v>20160</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21">
         <v>96</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="15">
         <f ca="1"/>
         <v>4</v>
       </c>
@@ -20608,17 +20789,17 @@
       <c r="P22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22">
         <v>8006.25</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22">
         <v>105</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="15">
         <f ca="1"/>
         <v>23</v>
       </c>
@@ -20645,17 +20826,17 @@
       <c r="P23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23">
         <v>10727.64</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23">
         <v>66</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S23" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="15">
         <f ca="1"/>
         <v>14</v>
       </c>
@@ -20682,17 +20863,17 @@
       <c r="P24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24">
         <v>9909.9</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24">
         <v>70</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S24" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>17</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="15">
         <f ca="1"/>
         <v>17</v>
       </c>
@@ -20719,17 +20900,17 @@
       <c r="P25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25">
         <v>12853.560000000001</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25">
         <v>86</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="15">
         <f ca="1"/>
         <v>11</v>
       </c>
@@ -20756,17 +20937,17 @@
       <c r="P26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26">
         <v>10202.400000000001</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26">
         <v>65</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S26" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="T26" s="16">
+      <c r="T26" s="15">
         <f ca="1"/>
         <v>16</v>
       </c>
@@ -20793,17 +20974,17 @@
       <c r="P27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27">
         <v>599.7600000000001</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27">
         <v>72</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S27" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>43</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T27" s="15">
         <f ca="1"/>
         <v>43</v>
       </c>
@@ -20830,17 +21011,17 @@
       <c r="P28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28">
         <v>2761.9200000000005</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28">
         <v>112</v>
       </c>
-      <c r="S28" s="15">
+      <c r="S28" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>38</v>
       </c>
-      <c r="T28" s="16">
+      <c r="T28" s="15">
         <f ca="1"/>
         <v>38</v>
       </c>
@@ -20867,17 +21048,17 @@
       <c r="P29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29">
         <v>6226.0800000000008</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29">
         <v>109</v>
       </c>
-      <c r="S29" s="15">
+      <c r="S29" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="15">
         <f ca="1"/>
         <v>28</v>
       </c>
@@ -20904,17 +21085,17 @@
       <c r="P30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30">
         <v>4682.72</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30">
         <v>112</v>
       </c>
-      <c r="S30" s="15">
+      <c r="S30" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>34</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="15">
         <f ca="1"/>
         <v>34</v>
       </c>
@@ -20941,17 +21122,17 @@
       <c r="P31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q31">
         <v>5523.44</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31">
         <v>104</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S31" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>32</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="15">
         <f ca="1"/>
         <v>32</v>
       </c>
@@ -20978,17 +21159,17 @@
       <c r="P32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q32">
         <v>22945.919999999998</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32">
         <v>114</v>
       </c>
-      <c r="S32" s="15">
+      <c r="S32" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="15">
         <f ca="1"/>
         <v>2</v>
       </c>
@@ -21015,17 +21196,17 @@
       <c r="P33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33">
         <v>6249.5999999999995</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33">
         <v>60</v>
       </c>
-      <c r="S33" s="15">
+      <c r="S33" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>27</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="15">
         <f ca="1"/>
         <v>27</v>
       </c>
@@ -21046,17 +21227,17 @@
       <c r="P34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34">
         <v>16329.72</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34">
         <v>139</v>
       </c>
-      <c r="S34" s="15">
+      <c r="S34" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="T34" s="16">
+      <c r="T34" s="15">
         <f ca="1"/>
         <v>7</v>
       </c>
@@ -21077,17 +21258,17 @@
       <c r="P35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35">
         <v>13645.800000000001</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35">
         <v>114</v>
       </c>
-      <c r="S35" s="15">
+      <c r="S35" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="15">
         <f ca="1"/>
         <v>9</v>
       </c>
@@ -21108,17 +21289,17 @@
       <c r="P36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36">
         <v>8978.2000000000007</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36">
         <v>154</v>
       </c>
-      <c r="S36" s="15">
+      <c r="S36" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="15">
         <f ca="1"/>
         <v>20</v>
       </c>
@@ -21139,17 +21320,17 @@
       <c r="P37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37">
         <v>703.5</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37">
         <v>105</v>
       </c>
-      <c r="S37" s="15">
+      <c r="S37" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>42</v>
       </c>
-      <c r="T37" s="16">
+      <c r="T37" s="15">
         <f ca="1"/>
         <v>42</v>
       </c>
@@ -21170,17 +21351,17 @@
       <c r="P38" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q38">
         <v>7222.5</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38">
         <v>75</v>
       </c>
-      <c r="S38" s="15">
+      <c r="S38" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>25</v>
       </c>
-      <c r="T38" s="16">
+      <c r="T38" s="15">
         <f ca="1"/>
         <v>25</v>
       </c>
@@ -21201,17 +21382,17 @@
       <c r="P39" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39">
         <v>5145.6000000000004</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39">
         <v>60</v>
       </c>
-      <c r="S39" s="15">
+      <c r="S39" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
-      <c r="T39" s="16">
+      <c r="T39" s="15">
         <f ca="1"/>
         <v>33</v>
       </c>
@@ -21232,17 +21413,17 @@
       <c r="P40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q40">
         <v>8871.1200000000008</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40">
         <v>111</v>
       </c>
-      <c r="S40" s="15">
+      <c r="S40" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>21</v>
       </c>
-      <c r="T40" s="16">
+      <c r="T40" s="15">
         <f ca="1"/>
         <v>21</v>
       </c>
@@ -21263,17 +21444,17 @@
       <c r="P41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41">
         <v>3957.15</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R41">
         <v>93</v>
       </c>
-      <c r="S41" s="15">
+      <c r="S41" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>37</v>
       </c>
-      <c r="T41" s="16">
+      <c r="T41" s="15">
         <f ca="1"/>
         <v>37</v>
       </c>
@@ -21294,17 +21475,17 @@
       <c r="P42" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q42">
         <v>7718.4000000000005</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R42">
         <v>67</v>
       </c>
-      <c r="S42" s="15">
+      <c r="S42" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
-      <c r="T42" s="16">
+      <c r="T42" s="15">
         <f ca="1"/>
         <v>24</v>
       </c>
@@ -21325,17 +21506,17 @@
       <c r="P43" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q43">
         <v>22952.16</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43">
         <v>132</v>
       </c>
-      <c r="S43" s="15">
+      <c r="S43" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="T43" s="16">
+      <c r="T43" s="15">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -21356,17 +21537,17 @@
       <c r="P44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q44">
         <v>20574</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R44">
         <v>127</v>
       </c>
-      <c r="S44" s="15">
+      <c r="S44" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="T44" s="16">
+      <c r="T44" s="15">
         <f ca="1"/>
         <v>3</v>
       </c>
@@ -21387,17 +21568,17 @@
       <c r="P45" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q45">
         <v>6064.8399999999992</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45">
         <v>73</v>
       </c>
-      <c r="S45" s="15">
+      <c r="S45" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
-      <c r="T45" s="16">
+      <c r="T45" s="15">
         <f ca="1"/>
         <v>29</v>
       </c>
@@ -21418,17 +21599,17 @@
       <c r="P46" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46">
         <v>16333.92</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46">
         <v>199</v>
       </c>
-      <c r="S46" s="15">
+      <c r="S46" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="T46" s="16">
+      <c r="T46" s="15">
         <f ca="1"/>
         <v>6</v>
       </c>
@@ -21554,6 +21735,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF8F26-A6C1-4B2D-8D53-E409D9B5AAAA}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="A31:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.25"/>
+    <row r="2" x14ac:dyDescent="0.25"/>
+    <row r="3" x14ac:dyDescent="0.25"/>
+    <row r="4" x14ac:dyDescent="0.25"/>
+    <row r="5" x14ac:dyDescent="0.25"/>
+    <row r="6" x14ac:dyDescent="0.25"/>
+    <row r="7" x14ac:dyDescent="0.25"/>
+    <row r="8" x14ac:dyDescent="0.25"/>
+    <row r="9" x14ac:dyDescent="0.25"/>
+    <row r="10" x14ac:dyDescent="0.25"/>
+    <row r="11" x14ac:dyDescent="0.25"/>
+    <row r="12" x14ac:dyDescent="0.25"/>
+    <row r="13" x14ac:dyDescent="0.25"/>
+    <row r="14" x14ac:dyDescent="0.25"/>
+    <row r="15" x14ac:dyDescent="0.25"/>
+    <row r="16" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
+    <row r="21" x14ac:dyDescent="0.25"/>
+    <row r="22" x14ac:dyDescent="0.25"/>
+    <row r="23" x14ac:dyDescent="0.25"/>
+    <row r="24" x14ac:dyDescent="0.25"/>
+    <row r="25" x14ac:dyDescent="0.25"/>
+    <row r="26" x14ac:dyDescent="0.25"/>
+    <row r="27" x14ac:dyDescent="0.25"/>
+    <row r="28" x14ac:dyDescent="0.25"/>
+    <row r="29" x14ac:dyDescent="0.25"/>
+    <row r="30" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B86BCA6-DF35-4AD0-B1A4-40571F66AE92}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -53272,7 +53503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C072B0D-0958-4B40-9249-FB0E3D41DBB9}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>

--- a/Sales-Dashboard-3_0.xlsx
+++ b/Sales-Dashboard-3_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Youtube/03. DashVendas 3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="13_ncr:1_{BFF51C44-DCD2-4F0A-BAAC-D0ADC01F5A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC510DAB-685D-4D64-8FCE-30EF3AF606FA}"/>
+  <xr:revisionPtr revIDLastSave="766" documentId="13_ncr:1_{BFF51C44-DCD2-4F0A-BAAC-D0ADC01F5A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A6B2AC1-167E-4963-AB40-E39131689395}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0A0D8D68-EFC2-4074-BDCA-85DAF874A3F1}"/>
   </bookViews>
@@ -588,7 +588,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,6 +615,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -622,6 +623,9 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -827,9 +831,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1155,13 +1156,125 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Sales-Dashboard-3_0.xlsx]Analysis!Daily</c:name>
-    <c:fmtId val="0"/>
+    <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1450,7 +1563,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D42A-449A-893F-7912350570BA}"/>
+              <c16:uniqueId val="{00000000-9F05-42C2-B64A-D84C8B843BA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1677,7 +1790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{719BB664-4497-44F6-847D-0817D728B027}" type="CELLRANGE">
+                    <a:fld id="{0EF60C00-8220-4EB8-83CF-29DD06DF48FD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1699,7 +1812,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000000-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1710,8 +1823,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB916BD0-CF6E-4523-9227-0C157D49B980}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F552822C-5DCA-4391-ACD4-596C127B78D6}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1729,10 +1842,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000001-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1743,8 +1857,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDA98811-6FCB-4240-9B99-93A86C573DD4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6F87A662-6A82-42B7-A89E-197BAC018958}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1762,10 +1876,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000002-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1776,8 +1891,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76CC703F-9F7D-4CAF-98FC-61DC64FDE19C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EBCC39A6-B363-4349-A51C-85F92882D565}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1795,10 +1910,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000003-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1809,8 +1925,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{851F61C7-3652-4962-9CA8-48F986D9683E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{91A2ADC4-EC37-4DA9-B565-B7EC5BEFE5C0}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1828,10 +1944,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000004-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1842,8 +1959,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5287F0AF-FD75-49F7-85EA-476DAF273696}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E4ECD4C6-EBE5-4B77-919C-2D77BA9BF233}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1861,10 +1978,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000005-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1875,8 +1993,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E37F330-468E-401A-95B4-B8416B49CEC0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{459110BD-05DA-44D2-A525-265F80ABC9F2}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1894,10 +2012,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000006-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1908,8 +2027,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E002272D-472C-4073-9FC6-828F64D1BD7E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0427F780-BCD8-41ED-B40A-1B58063F04B9}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1927,10 +2046,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000007-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1941,8 +2061,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C74E3D0E-1613-47AC-AE1C-C1A99E6F65BA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{83C0DE0D-9E2C-40F5-9ECE-2C36081A8830}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1960,10 +2080,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000008-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1974,8 +2095,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93DE526C-5A43-408E-9CF8-F9AC578C9A33}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{658D76D2-1330-45DB-B673-B4BF97C0CC91}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1993,10 +2114,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{00000009-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2007,8 +2129,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9712F9B-8715-4199-8D1C-F3456E78C594}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{86B11D20-3D7E-4F8F-B458-ED40DC9808BA}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -2026,10 +2148,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{0000000A-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2040,8 +2163,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E92F99F6-E6D8-49E6-B696-0BDA7C8354A3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{465BEBF4-D101-4728-A70C-71616184300D}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -2059,10 +2182,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-B16E-4D6B-BA6C-84A47DBC8535}"/>
+                  <c16:uniqueId val="{0000000B-E095-46DB-B5D9-ED12D66D4AC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2260,7 +2384,7 @@
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B16E-4D6B-BA6C-84A47DBC8535}"/>
+              <c16:uniqueId val="{0000000C-E095-46DB-B5D9-ED12D66D4AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2380,7 +2504,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B16E-4D6B-BA6C-84A47DBC8535}"/>
+              <c16:uniqueId val="{0000000D-E095-46DB-B5D9-ED12D66D4AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2551,7 +2675,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34001143688802499"/>
+          <c:y val="8.3575724871346027E-2"/>
+          <c:w val="0.63907947320069325"/>
+          <c:h val="0.81613340528303868"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -2585,18 +2719,13 @@
               </a:effectLst>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2713,7 +2842,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2811-4900-9EF2-82B9FBFAD397}"/>
+              <c16:uniqueId val="{00000000-628A-431C-956C-9168FCC6C8BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2809,7 +2938,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2811-4900-9EF2-82B9FBFAD397}"/>
+              <c16:uniqueId val="{00000001-628A-431C-956C-9168FCC6C8BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2854,12 +2983,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2911,16 +3037,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2930,7 +3049,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -2958,7 +3081,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Sales-Dashboard-3_0.xlsx]Analysis!SalesType</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -3061,6 +3184,202 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3096,7 +3415,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9824-48E2-B6D6-4EF765EB7C58}"/>
+                <c16:uniqueId val="{00000001-12F0-4BBE-B667-ACADCFCC2ED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3116,7 +3435,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9824-48E2-B6D6-4EF765EB7C58}"/>
+                <c16:uniqueId val="{00000003-12F0-4BBE-B667-ACADCFCC2ED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3136,7 +3455,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-E669-4980-BC13-090EF828E4DD}"/>
+                <c16:uniqueId val="{00000005-12F0-4BBE-B667-ACADCFCC2ED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3230,7 +3549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E669-4980-BC13-090EF828E4DD}"/>
+              <c16:uniqueId val="{00000006-12F0-4BBE-B667-ACADCFCC2ED8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3269,7 +3588,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3358,7 +3677,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Sales-Dashboard-3_0.xlsx]Analysis!PaymentMode</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -3447,6 +3766,174 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3482,7 +3969,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5D90-41B6-A557-65439EEC999B}"/>
+                <c16:uniqueId val="{00000001-EAE3-4B81-BBC5-E59EFD3CC72B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3502,7 +3989,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5D90-41B6-A557-65439EEC999B}"/>
+                <c16:uniqueId val="{00000003-EAE3-4B81-BBC5-E59EFD3CC72B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3521,7 +4008,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -3590,7 +4077,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF49-4DAE-9BDE-7EA374415963}"/>
+              <c16:uniqueId val="{00000004-EAE3-4B81-BBC5-E59EFD3CC72B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3693,6 +4180,642 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sales-Dashboard-3_0.xlsx]Analysis!Daily</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$3:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>13167.810000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13210.220000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20202.099999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11312.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11711.449999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14365.540000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7132.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14262.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16824.670000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15229.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11915.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14837.359999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8084.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9461.1400000000012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12189.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12762.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3659.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18582.390000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10204.229999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20482.78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10665.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11315.839999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18818.189999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11488.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18688.430000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13710.079999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11440.67</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13306.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8794.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16666.269999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6920.0999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CEF-46D1-B61A-18B48A0AAA09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="324308432"/>
+        <c:axId val="342739936"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="324308432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342739936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="342739936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324308432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -3937,6 +5060,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7065,6 +8228,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="283">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$L$1" lockText="1" noThreeD="1"/>
 </file>
@@ -7078,32 +8737,706 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$Y$1" max="30000" min="1" page="10" val="48"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$Y$1" max="30000" min="1" page="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>193620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10219765" cy="5718120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>112057</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analysis!F16">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EEB9B9-8EA9-B488-233D-60E405A83194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1445558" y="1165411"/>
+          <a:ext cx="1086970" cy="235324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{ED50925D-F536-4914-812E-66A9468489BA}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 401.412 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448233</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analysis!F17">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF906532-BC84-D99C-9CE5-CE6DEC5749D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3597087" y="1143000"/>
+          <a:ext cx="1086970" cy="235324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{CB5597E6-821B-4D97-8277-5018EE9474CD}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 68.908 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analysis!F18">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1E21C1-9A84-2E84-D8DE-D0861219DB17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647764" y="1131795"/>
+          <a:ext cx="1086970" cy="235324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{5751E6DF-4376-48B7-9423-C5428033ED72}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>21%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analysis!U1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FC729E-3EBA-167D-509D-6CEA3F46F6DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7788088" y="1075765"/>
+          <a:ext cx="795618" cy="235322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{7A1EB4CF-2564-4236-9A65-0CF7A5B661F2}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Product41</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:sp macro="" textlink="Analysis!AG1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CaixaDeTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA125A1-F471-F44E-E079-3A78A34154D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8897469" y="1467971"/>
+          <a:ext cx="997325" cy="257734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{300DE555-78C6-4688-96FF-C06084FDE3EC}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 95.269,40 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analysis!AF1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CaixaDeTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D62AE78-FF81-76A3-DAEB-7EBC0CD4DF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8908676" y="1086969"/>
+          <a:ext cx="862853" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{4D9C932E-C96A-4C8A-82B6-6091F0466FF0}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Category04</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analysis!V1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CaixaDeTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AB0584-AAF5-30DB-7B4D-62BEDEE7C6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7631205" y="1725705"/>
+          <a:ext cx="986118" cy="257736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{06863E23-BF21-4472-9211-7F15DD669998}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 22.952,16 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analysis!W1">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CaixaDeTexto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690FB61B-DB77-852B-7DA2-4BFCC0E99993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7933764" y="1400734"/>
+          <a:ext cx="425824" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{870924C3-FEDE-4483-805C-A9D65237927C}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>79</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="11" name="SALE TYPE">
+            <xdr:cNvPr id="23" name="SALE TYPE">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95E15F0-9211-4BD6-A57A-C77111FCC3D3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7120,7 +9453,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7130,8 +9463,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3257550" y="438151"/>
-              <a:ext cx="1828800" cy="1181100"/>
+              <a:off x="4519410" y="45041"/>
+              <a:ext cx="2653156" cy="683341"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7163,25 +9496,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>408587</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>143251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261606</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="12" name="PAYMENT MODE">
+            <xdr:cNvPr id="24" name="PAYMENT MODE">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD73AD72-59E8-4CF2-B267-3BC19E1E8FDD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7198,7 +9531,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7208,8 +9541,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5143500" y="466725"/>
-              <a:ext cx="1828800" cy="942975"/>
+              <a:off x="7756444" y="143251"/>
+              <a:ext cx="2332052" cy="629955"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7241,25 +9574,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>157119</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="14" name="Month">
+            <xdr:cNvPr id="25" name="Month">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B908833-FCDA-4BA9-A83E-412FB577D413}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7276,7 +9609,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7286,8 +9619,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3267075" y="1724025"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="157119" y="1962766"/>
+              <a:ext cx="1013095" cy="2772519"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7319,25 +9652,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>70142</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>290181</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="13" name="Year">
+            <xdr:cNvPr id="26" name="Year">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF66BBC-A540-49EA-A5C2-A0F393806D72}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7354,7 +9687,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7364,8 +9697,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5172075" y="1504950"/>
-              <a:ext cx="1828800" cy="866775"/>
+              <a:off x="70142" y="976877"/>
+              <a:ext cx="1236144" cy="669587"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7397,27 +9730,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>71004</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>72303</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1392381</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>148503</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>255673</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73168</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="27" name="Gráfico 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE83E053-3CB4-417D-9D41-FF1FEB122D8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7425,7 +9760,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7433,27 +9768,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90767</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73046</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>118796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>359018</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>79016</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="28" name="Gráfico 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771C7AAF-8E0B-4248-8271-F2C84BF91C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7461,7 +9798,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7471,26 +9808,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>439679</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>134011</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>60845</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>143536</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+            <xdr:cNvPr id="2053" name="Check Box 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A2186D-050C-40F1-8D06-266693783C95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7538,26 +9875,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>18619</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>145217</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>235377</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>154742</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+            <xdr:cNvPr id="2054" name="Check Box 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
+                  <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9B0E4D-2B57-40DB-813C-EF393B16B51D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7605,26 +9942,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>234433</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>145217</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>464052</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>154742</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+            <xdr:cNvPr id="2055" name="Check Box 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
+                  <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3D88FC-28F9-485F-8989-9BE23887B244}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7670,27 +10007,29 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>655543</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68354</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>402436</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>144554</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="29" name="Gráfico 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46595F96-1A22-45E7-A5C1-DC44232656BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7698,7 +10037,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7708,26 +10047,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>24</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>2901</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>24</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>597176</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>69161</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Spinner 4" hidden="1">
+            <xdr:cNvPr id="2056" name="Spinner 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
+                  <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86D7D38-63AF-4D76-90DB-A9FE7C9C01A2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7756,25 +10095,25 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68354</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>492021</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>683559</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>432192</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64033</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Gráfico 4">
+            <xdr:cNvPr id="30" name="Gráfico 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED839232-50F8-475B-8A06-C1F5957CBBDC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7786,7 +10125,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -7801,8 +10140,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="31582099" y="1592354"/>
-              <a:ext cx="3134285" cy="3562351"/>
+              <a:off x="7753433" y="2895678"/>
+              <a:ext cx="2360641" cy="2502355"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7834,27 +10173,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>72839</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>113179</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94538</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>1669677</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>189379</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="31" name="Gráfico 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04020AB0-3FDD-46B4-A090-D2A3516F3969}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7862,7 +10203,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7870,27 +10211,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1119</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>1602441</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>77319</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>353436</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
+        <xdr:cNvPr id="32" name="Gráfico 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72997D3-B1D1-4660-8D7A-7228AC23E90A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7898,65 +10241,48 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>181695</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>105754</xdr:rowOff>
+      <xdr:rowOff>116861</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="37" name="Gráfico 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95927774-837C-53F5-2388-E2F5CD150525}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB870AC-149F-4A1F-80D3-1E396233D31F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9670676" cy="5439754"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18097,8 +20423,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{519FFAEF-4180-44DD-A6C6-E34FB3FED936}" name="PaymentMode" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Payment Mode">
-  <location ref="AM2:AN4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2662366F-2D74-4B73-8EED-17F9E7AF4544}" name="Daily" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A2:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -18111,7 +20437,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -18126,7 +20452,7 @@
     <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="165" showAll="0"/>
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="32">
         <item x="0"/>
         <item x="1"/>
@@ -18188,24 +20514,116 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="13"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="3">
-    <chartFormat chart="1" format="0" series="1">
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18214,26 +20632,20 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="1">
+    <chartFormat chart="8" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="2">
+    <chartFormat chart="9" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -18511,7 +20923,162 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37209809-68D4-4FE2-96E2-958E723714A6}" name="SalesType" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Sale Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{519FFAEF-4180-44DD-A6C6-E34FB3FED936}" name="PaymentMode" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Payment Mode">
+  <location ref="AM2:AN4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37209809-68D4-4FE2-96E2-958E723714A6}" name="SalesType" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Sale Type">
   <location ref="AJ2:AK5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField numFmtId="14" showAll="0"/>
@@ -18622,7 +21189,7 @@
     <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="4">
-    <chartFormat chart="1" format="0" series="1">
+    <chartFormat chart="4" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18631,7 +21198,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="1">
+    <chartFormat chart="4" format="9">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18643,7 +21210,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="2">
+    <chartFormat chart="4" format="10">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18655,7 +21222,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="3">
+    <chartFormat chart="4" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18680,231 +21247,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2662366F-2D74-4B73-8EED-17F9E7AF4544}" name="Daily" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A2:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="13"/>
-  </rowFields>
-  <rowItems count="31">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Total Selling Value" fld="12" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_SALE_TYPE" xr10:uid="{B228412C-1A8B-44E6-B894-FEE84328B1DF}" sourceName="SALE TYPE">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_SALE_TYPE" xr10:uid="{5FD10CE7-D0D0-4A55-AEF6-F63E04C0C87F}" sourceName="SALE TYPE">
   <pivotTables>
     <pivotTable tabId="3" name="Daily"/>
     <pivotTable tabId="3" name="Categorywise"/>
@@ -18926,7 +21270,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_PAYMENT_MODE" xr10:uid="{F7B97DFB-E760-47AD-B3D4-F63E151C29D3}" sourceName="PAYMENT MODE">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_PAYMENT_MODE" xr10:uid="{1AB5D40D-A3DA-4500-AF86-5B3648639DEB}" sourceName="PAYMENT MODE">
   <pivotTables>
     <pivotTable tabId="3" name="Daily"/>
     <pivotTable tabId="3" name="Categorywise"/>
@@ -18947,7 +21291,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Month" xr10:uid="{2C18CB07-B7B5-4F1B-80E7-E0D21445C78F}" sourceName="Month">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Month" xr10:uid="{F7FFACB0-0687-4E90-A21F-49F7291D3E6E}" sourceName="Month">
   <pivotTables>
     <pivotTable tabId="3" name="Daily"/>
     <pivotTable tabId="3" name="Categorywise"/>
@@ -18978,7 +21322,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Year" xr10:uid="{1DC4B27B-3F43-4398-B5B4-2B7000637F12}" sourceName="Year">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Year" xr10:uid="{65C7CF56-1BE4-4F09-9F3B-D83C7A419499}" sourceName="Year">
   <pivotTables>
     <pivotTable tabId="3" name="Daily"/>
     <pivotTable tabId="3" name="Categorywise"/>
@@ -19001,54 +21345,54 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="SALE TYPE" xr10:uid="{A21B23B5-6564-4228-BA76-C288F674B669}" cache="SegmentaçãodeDados_SALE_TYPE" caption="SALE TYPE" rowHeight="241300"/>
-  <slicer name="PAYMENT MODE" xr10:uid="{95557858-68BD-44A0-AAD4-B1852C04BDD2}" cache="SegmentaçãodeDados_PAYMENT_MODE" caption="PAYMENT MODE" rowHeight="241300"/>
-  <slicer name="Month" xr10:uid="{B378A133-5068-4BB9-AD9B-257C1EE25EF0}" cache="SegmentaçãodeDados_Month" caption="Month" startItem="1" rowHeight="241300"/>
-  <slicer name="Year" xr10:uid="{2BEAAEB2-C398-40C1-9673-718EF1EDB42A}" cache="SegmentaçãodeDados_Year" caption="Year" rowHeight="241300"/>
+  <slicer name="SALE TYPE" xr10:uid="{8EA13A48-5F6E-4484-8320-4D2780149171}" cache="SegmentaçãodeDados_SALE_TYPE" caption="SALE TYPE" columnCount="3" rowHeight="241300"/>
+  <slicer name="PAYMENT MODE" xr10:uid="{1B1C4FB6-3DEA-4700-A23E-8F7A1C9B4C9B}" cache="SegmentaçãodeDados_PAYMENT_MODE" caption="PAYMENT MODE" columnCount="2" rowHeight="241300"/>
+  <slicer name="Month" xr10:uid="{538C3018-5741-433A-A73E-A8CAA1EC5087}" cache="SegmentaçãodeDados_Month" caption="Month" rowHeight="241300"/>
+  <slicer name="Year" xr10:uid="{9FE1E540-DD35-4278-834A-BEED9BB88A81}" cache="SegmentaçãodeDados_Year" caption="Year" columnCount="2" rowHeight="288000"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60351B27-4213-4B50-AF1E-6DD234ED1CD8}" name="InputData" displayName="InputData" ref="A1:P528" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60351B27-4213-4B50-AF1E-6DD234ED1CD8}" name="InputData" displayName="InputData" ref="A1:P528" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26">
   <autoFilter ref="A1:P528" xr:uid="{60351B27-4213-4B50-AF1E-6DD234ED1CD8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E527">
     <sortCondition ref="A1:A527"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{7E2D9722-C99A-4D79-AD8A-A4AF24D31B15}" name="DATE" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{1B687DA1-746A-409E-8132-464ADA2D65F7}" name="PRODUCT ID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{3D21C161-3520-4EEB-95C2-BC89A67F811B}" name="QUANTITY" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{51AFA112-3989-4C7A-B537-003512753602}" name="SALE TYPE" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{057B8FDA-60FB-4816-999C-2030B688B9CF}" name="PAYMENT MODE" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{A77A9445-20AF-4122-92EB-C3706E536AB4}" name="DISCOUNT %" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{EF36F582-8243-4D11-B1F9-3365747E3A15}" name="PRODUCT" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{7E2D9722-C99A-4D79-AD8A-A4AF24D31B15}" name="DATE" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{1B687DA1-746A-409E-8132-464ADA2D65F7}" name="PRODUCT ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3D21C161-3520-4EEB-95C2-BC89A67F811B}" name="QUANTITY" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{51AFA112-3989-4C7A-B537-003512753602}" name="SALE TYPE" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{057B8FDA-60FB-4816-999C-2030B688B9CF}" name="PAYMENT MODE" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{A77A9445-20AF-4122-92EB-C3706E536AB4}" name="DISCOUNT %" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{EF36F582-8243-4D11-B1F9-3365747E3A15}" name="PRODUCT" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:B,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6C40EFE4-B06B-4022-A9DE-1DF212ACE9CD}" name="CATEGORY" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{6C40EFE4-B06B-4022-A9DE-1DF212ACE9CD}" name="CATEGORY" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:C,3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C0221F36-9183-46D8-9832-D4F491DFDBDF}" name="UOM" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{C0221F36-9183-46D8-9832-D4F491DFDBDF}" name="UOM" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:D,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E273685E-A284-42EC-AECF-34BEF471CB6C}" name="BUYING PRIZE" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{E273685E-A284-42EC-AECF-34BEF471CB6C}" name="BUYING PRIZE" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:E,5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{68C3D957-3ED6-47AF-B6A5-93285DAE1B74}" name="SELLING PRICE" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{68C3D957-3ED6-47AF-B6A5-93285DAE1B74}" name="SELLING PRICE" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],'Master Data'!A:F,6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B924AB12-DCC9-42A1-8327-F9F17EBBACD1}" name="Total Buying Value" dataDxfId="13">
+    <tableColumn id="12" xr3:uid="{B924AB12-DCC9-42A1-8327-F9F17EBBACD1}" name="Total Buying Value" dataDxfId="14">
       <calculatedColumnFormula>InputData[[#This Row],[BUYING PRIZE]]*InputData[[#This Row],[QUANTITY]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F93AF158-233E-4DFA-A672-B002567615A3}" name="Total Selling Value" dataDxfId="12">
+    <tableColumn id="13" xr3:uid="{F93AF158-233E-4DFA-A672-B002567615A3}" name="Total Selling Value" dataDxfId="13">
       <calculatedColumnFormula>InputData[[#This Row],[SELLING PRICE]]*InputData[[#This Row],[QUANTITY]]*(1-InputData[[#This Row],[DISCOUNT %]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{50889A8C-3CB3-4832-B011-4EDEFF510D7D}" name="Day" dataDxfId="11">
+    <tableColumn id="14" xr3:uid="{50889A8C-3CB3-4832-B011-4EDEFF510D7D}" name="Day" dataDxfId="12">
       <calculatedColumnFormula>DAY(InputData[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DF37A157-BAFE-4A6F-8357-3A2FFB713586}" name="Month" dataDxfId="10">
+    <tableColumn id="15" xr3:uid="{DF37A157-BAFE-4A6F-8357-3A2FFB713586}" name="Month" dataDxfId="11">
       <calculatedColumnFormula>MONTH(InputData[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7A3DA93E-A613-45D1-A85F-A17814534C29}" name="Year" dataDxfId="9">
+    <tableColumn id="16" xr3:uid="{7A3DA93E-A613-45D1-A85F-A17814534C29}" name="Year" dataDxfId="10">
       <calculatedColumnFormula>YEAR(InputData[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19057,15 +21401,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE6FA1E2-6EE8-430A-AF62-020400F3E926}" name="MasterData" displayName="MasterData" ref="A1:F46" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE6FA1E2-6EE8-430A-AF62-020400F3E926}" name="MasterData" displayName="MasterData" ref="A1:F46" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
   <autoFilter ref="A1:F46" xr:uid="{DE6FA1E2-6EE8-430A-AF62-020400F3E926}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{106E50BA-9FFB-484D-AC75-176578AFED44}" name="PRODUCT ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C6063C4C-22AC-43C3-B630-5C0916CFA263}" name="PRODUCT" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{FEA9A0A4-A0D7-45FA-BD75-4D9EBBD09441}" name="CATEGORY" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3BDFD3DA-79CD-4B0E-9F98-1F406523093B}" name="UOM" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C286276F-25D5-4D9D-9759-32EF67A133BE}" name="BUYING PRIZE" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BFC92544-6510-4B40-ABEE-FD6A4B0302D7}" name="SELLING PRICE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{106E50BA-9FFB-484D-AC75-176578AFED44}" name="PRODUCT ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C6063C4C-22AC-43C3-B630-5C0916CFA263}" name="PRODUCT" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FEA9A0A4-A0D7-45FA-BD75-4D9EBBD09441}" name="CATEGORY" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3BDFD3DA-79CD-4B0E-9F98-1F406523093B}" name="UOM" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C286276F-25D5-4D9D-9759-32EF67A133BE}" name="BUYING PRIZE" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BFC92544-6510-4B40-ABEE-FD6A4B0302D7}" name="SELLING PRICE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19367,31 +21711,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F315811-E3DD-45E8-B602-C9A10763215A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F315811-E3DD-45E8-B602-C9A10763215A}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AN46"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -19401,14 +21747,14 @@
     <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.85546875" customWidth="1"/>
     <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="13.42578125" customWidth="1"/>
     <col min="35" max="35" width="9.28515625" customWidth="1"/>
-    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -19425,7 +21771,7 @@
         <f ca="1">VLOOKUP(1,$T$2:$W$46,2,0)</f>
         <v>Product41</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="12">
         <f ca="1">VLOOKUP(1,$T$2:$W$46,3,0)</f>
         <v>22952.16</v>
       </c>
@@ -19528,19 +21874,19 @@
       <c r="B3" s="8">
         <v>13167.810000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="16">
         <v>401411.91999999969</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="16">
         <v>332504</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="16">
         <v>34290</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="16">
         <v>41346.959999999992</v>
       </c>
       <c r="K3" s="10">
@@ -19561,10 +21907,10 @@
       <c r="P3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="16">
         <v>9764.7199999999993</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="16">
         <v>94</v>
       </c>
       <c r="S3" s="14">
@@ -19602,7 +21948,7 @@
       <c r="AC3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="16">
         <v>69261.950000000012</v>
       </c>
       <c r="AE3" cm="1">
@@ -19620,13 +21966,13 @@
       <c r="AJ3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="16">
         <v>208140.15000000005</v>
       </c>
       <c r="AM3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="16">
         <v>199516.90000000008</v>
       </c>
     </row>
@@ -19640,10 +21986,10 @@
       <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="16">
         <v>25341</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="16">
         <v>30857.300000000003</v>
       </c>
       <c r="K4" s="10">
@@ -19664,10 +22010,10 @@
       <c r="P4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="16">
         <v>13423.199999999999</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="16">
         <v>94</v>
       </c>
       <c r="S4" s="14">
@@ -19705,7 +22051,7 @@
       <c r="AC4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="16">
         <v>92963.87</v>
       </c>
       <c r="AE4">
@@ -19723,13 +22069,13 @@
       <c r="AJ4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="16">
         <v>133923.87000000002</v>
       </c>
       <c r="AM4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="16">
         <v>201895.01999999993</v>
       </c>
     </row>
@@ -19743,10 +22089,10 @@
       <c r="G5" s="10">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="16">
         <v>23437</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="16">
         <v>28616.65</v>
       </c>
       <c r="K5" s="10">
@@ -19767,10 +22113,10 @@
       <c r="P5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="16">
         <v>6394.2599999999993</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="16">
         <v>79</v>
       </c>
       <c r="S5" s="14">
@@ -19808,7 +22154,7 @@
       <c r="AC5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="16">
         <v>52299.509999999995</v>
       </c>
       <c r="AE5">
@@ -19826,7 +22172,7 @@
       <c r="AJ5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="16">
         <v>59347.900000000009</v>
       </c>
     </row>
@@ -19840,10 +22186,10 @@
       <c r="G6" s="10">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="16">
         <v>21282</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="16">
         <v>26579.11</v>
       </c>
       <c r="K6" s="10">
@@ -19864,10 +22210,10 @@
       <c r="P6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="16">
         <v>6056.1600000000008</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="16">
         <v>124</v>
       </c>
       <c r="S6" s="14">
@@ -19905,7 +22251,7 @@
       <c r="AC6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="16">
         <v>95269.4</v>
       </c>
       <c r="AE6">
@@ -19931,10 +22277,10 @@
       <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="16">
         <v>26526</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="16">
         <v>30910.45</v>
       </c>
       <c r="K7" s="10">
@@ -19955,10 +22301,10 @@
       <c r="P7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="16">
         <v>15716.61</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="16">
         <v>101</v>
       </c>
       <c r="S7" s="14">
@@ -19996,7 +22342,7 @@
       <c r="AC7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="16">
         <v>91617.19</v>
       </c>
       <c r="AE7">
@@ -20022,10 +22368,10 @@
       <c r="G8" s="10">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="16">
         <v>24879</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="16">
         <v>30533.710000000003</v>
       </c>
       <c r="K8" s="10">
@@ -20046,10 +22392,10 @@
       <c r="P8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="16">
         <v>4531.5</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="16">
         <v>53</v>
       </c>
       <c r="S8" s="14">
@@ -20095,10 +22441,10 @@
       <c r="G9" s="10">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="16">
         <v>29878</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="16">
         <v>35251.79</v>
       </c>
       <c r="K9" s="10">
@@ -20119,10 +22465,10 @@
       <c r="P9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="16">
         <v>2291.04</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="16">
         <v>48</v>
       </c>
       <c r="S9" s="14">
@@ -20168,10 +22514,10 @@
       <c r="G10" s="10">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="16">
         <v>29831</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="16">
         <v>35350.400000000016</v>
       </c>
       <c r="K10" s="10">
@@ -20192,10 +22538,10 @@
       <c r="P10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="16">
         <v>10502.82</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="16">
         <v>111</v>
       </c>
       <c r="S10" s="14">
@@ -20241,10 +22587,10 @@
       <c r="G11" s="10">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="16">
         <v>28758</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="16">
         <v>35242.810000000005</v>
       </c>
       <c r="K11" s="10">
@@ -20265,10 +22611,10 @@
       <c r="P11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="16">
         <v>581.64</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="16">
         <v>74</v>
       </c>
       <c r="S11" s="14">
@@ -20314,10 +22660,10 @@
       <c r="G12" s="10">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="16">
         <v>27842</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="16">
         <v>33500.69000000001</v>
       </c>
       <c r="K12" s="10">
@@ -20338,10 +22684,10 @@
       <c r="P12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="16">
         <v>16428</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="16">
         <v>100</v>
       </c>
       <c r="S12" s="14">
@@ -20387,10 +22733,10 @@
       <c r="G13" s="10">
         <v>11</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="16">
         <v>29306</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="16">
         <v>36124.07</v>
       </c>
       <c r="K13" s="10">
@@ -20411,10 +22757,10 @@
       <c r="P13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="16">
         <v>5856.4</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="16">
         <v>121</v>
       </c>
       <c r="S13" s="14">
@@ -20448,10 +22794,10 @@
       <c r="G14" s="10">
         <v>12</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="16">
         <v>31134</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="16">
         <v>37097.979999999996</v>
       </c>
       <c r="K14" s="10">
@@ -20472,10 +22818,10 @@
       <c r="P14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="16">
         <v>11582.910000000003</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="16">
         <v>123</v>
       </c>
       <c r="S14" s="14">
@@ -20509,10 +22855,10 @@
       <c r="P15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="16">
         <v>8423.52</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="16">
         <v>69</v>
       </c>
       <c r="S15" s="14">
@@ -20553,10 +22899,10 @@
       <c r="P16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="16">
         <v>12764.640000000001</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="16">
         <v>87</v>
       </c>
       <c r="S16" s="14">
@@ -20597,10 +22943,10 @@
       <c r="P17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="16">
         <v>1839.2399999999998</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="16">
         <v>117</v>
       </c>
       <c r="S17" s="14">
@@ -20641,10 +22987,10 @@
       <c r="P18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="16">
         <v>1996.8</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="16">
         <v>120</v>
       </c>
       <c r="S18" s="14">
@@ -20678,10 +23024,10 @@
       <c r="P19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="16">
         <v>9877.1400000000012</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="16">
         <v>63</v>
       </c>
       <c r="S19" s="14">
@@ -20715,10 +23061,10 @@
       <c r="P20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="16">
         <v>4035.2200000000003</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="16">
         <v>82</v>
       </c>
       <c r="S20" s="14">
@@ -20752,10 +23098,10 @@
       <c r="P21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="16">
         <v>20160</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="16">
         <v>96</v>
       </c>
       <c r="S21" s="14">
@@ -20789,10 +23135,10 @@
       <c r="P22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="16">
         <v>8006.25</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="16">
         <v>105</v>
       </c>
       <c r="S22" s="14">
@@ -20826,10 +23172,10 @@
       <c r="P23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="16">
         <v>10727.64</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="16">
         <v>66</v>
       </c>
       <c r="S23" s="14">
@@ -20863,10 +23209,10 @@
       <c r="P24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="16">
         <v>9909.9</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="16">
         <v>70</v>
       </c>
       <c r="S24" s="14">
@@ -20900,10 +23246,10 @@
       <c r="P25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="16">
         <v>12853.560000000001</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="16">
         <v>86</v>
       </c>
       <c r="S25" s="14">
@@ -20937,10 +23283,10 @@
       <c r="P26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="16">
         <v>10202.400000000001</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="16">
         <v>65</v>
       </c>
       <c r="S26" s="14">
@@ -20974,10 +23320,10 @@
       <c r="P27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="16">
         <v>599.7600000000001</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="16">
         <v>72</v>
       </c>
       <c r="S27" s="14">
@@ -21011,10 +23357,10 @@
       <c r="P28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="16">
         <v>2761.9200000000005</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="16">
         <v>112</v>
       </c>
       <c r="S28" s="14">
@@ -21048,10 +23394,10 @@
       <c r="P29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="16">
         <v>6226.0800000000008</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="16">
         <v>109</v>
       </c>
       <c r="S29" s="14">
@@ -21085,10 +23431,10 @@
       <c r="P30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="16">
         <v>4682.72</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="16">
         <v>112</v>
       </c>
       <c r="S30" s="14">
@@ -21122,10 +23468,10 @@
       <c r="P31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="16">
         <v>5523.44</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="16">
         <v>104</v>
       </c>
       <c r="S31" s="14">
@@ -21159,10 +23505,10 @@
       <c r="P32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="16">
         <v>22945.919999999998</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="16">
         <v>114</v>
       </c>
       <c r="S32" s="14">
@@ -21196,10 +23542,10 @@
       <c r="P33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="16">
         <v>6249.5999999999995</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="16">
         <v>60</v>
       </c>
       <c r="S33" s="14">
@@ -21227,10 +23573,10 @@
       <c r="P34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="16">
         <v>16329.72</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="16">
         <v>139</v>
       </c>
       <c r="S34" s="14">
@@ -21258,10 +23604,10 @@
       <c r="P35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="16">
         <v>13645.800000000001</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="16">
         <v>114</v>
       </c>
       <c r="S35" s="14">
@@ -21289,10 +23635,10 @@
       <c r="P36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="16">
         <v>8978.2000000000007</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="16">
         <v>154</v>
       </c>
       <c r="S36" s="14">
@@ -21320,10 +23666,10 @@
       <c r="P37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="16">
         <v>703.5</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="16">
         <v>105</v>
       </c>
       <c r="S37" s="14">
@@ -21351,10 +23697,10 @@
       <c r="P38" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="16">
         <v>7222.5</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="16">
         <v>75</v>
       </c>
       <c r="S38" s="14">
@@ -21382,10 +23728,10 @@
       <c r="P39" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="16">
         <v>5145.6000000000004</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="16">
         <v>60</v>
       </c>
       <c r="S39" s="14">
@@ -21413,10 +23759,10 @@
       <c r="P40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="16">
         <v>8871.1200000000008</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="16">
         <v>111</v>
       </c>
       <c r="S40" s="14">
@@ -21444,10 +23790,10 @@
       <c r="P41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="16">
         <v>3957.15</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="16">
         <v>93</v>
       </c>
       <c r="S41" s="14">
@@ -21475,10 +23821,10 @@
       <c r="P42" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="16">
         <v>7718.4000000000005</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="16">
         <v>67</v>
       </c>
       <c r="S42" s="14">
@@ -21506,10 +23852,10 @@
       <c r="P43" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="16">
         <v>22952.16</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="16">
         <v>132</v>
       </c>
       <c r="S43" s="14">
@@ -21537,10 +23883,10 @@
       <c r="P44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="16">
         <v>20574</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="16">
         <v>127</v>
       </c>
       <c r="S44" s="14">
@@ -21568,10 +23914,10 @@
       <c r="P45" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="16">
         <v>6064.8399999999992</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="16">
         <v>73</v>
       </c>
       <c r="S45" s="14">
@@ -21599,10 +23945,10 @@
       <c r="P46" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="16">
         <v>16333.92</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="16">
         <v>199</v>
       </c>
       <c r="S46" s="14">
@@ -21628,142 +23974,49 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId10" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId11" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId12" name="Check Box 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>304800</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId13" name="Spinner 4">
-              <controlPr defaultSize="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>24</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>24</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId14"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF8F26-A6C1-4B2D-8D53-E409D9B5AAAA}">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF8F26-A6C1-4B2D-8D53-E409D9B5AAAA}">
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="A31:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25"/>
-    <row r="2" x14ac:dyDescent="0.25"/>
-    <row r="3" x14ac:dyDescent="0.25"/>
-    <row r="4" x14ac:dyDescent="0.25"/>
-    <row r="5" x14ac:dyDescent="0.25"/>
-    <row r="6" x14ac:dyDescent="0.25"/>
-    <row r="7" x14ac:dyDescent="0.25"/>
-    <row r="8" x14ac:dyDescent="0.25"/>
-    <row r="9" x14ac:dyDescent="0.25"/>
-    <row r="10" x14ac:dyDescent="0.25"/>
-    <row r="11" x14ac:dyDescent="0.25"/>
-    <row r="12" x14ac:dyDescent="0.25"/>
-    <row r="13" x14ac:dyDescent="0.25"/>
-    <row r="14" x14ac:dyDescent="0.25"/>
-    <row r="15" x14ac:dyDescent="0.25"/>
-    <row r="16" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="12:14" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="12:14" x14ac:dyDescent="0.25"/>
     <row r="17" x14ac:dyDescent="0.25"/>
     <row r="18" x14ac:dyDescent="0.25"/>
     <row r="19" x14ac:dyDescent="0.25"/>
@@ -21777,10 +24030,112 @@
     <row r="27" x14ac:dyDescent="0.25"/>
     <row r="28" x14ac:dyDescent="0.25"/>
     <row r="29" x14ac:dyDescent="0.25"/>
-    <row r="30" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2053" r:id="rId3" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2054" r:id="rId4" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2055" r:id="rId5" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2056" r:id="rId6" name="Spinner 8">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId7"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
